--- a/Flask_project_guide.xlsx
+++ b/Flask_project_guide.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python\IKP\Robotstat_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{115B1009-92EA-4474-93E5-5840634CB5CA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F5B4B0-9F81-49D1-93A7-550BAB769E6F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{6839722E-0ED2-439C-BA68-31FD24E9F8E6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{6839722E-0ED2-439C-BA68-31FD24E9F8E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Оглавление" sheetId="6" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="94">
   <si>
     <t>app</t>
   </si>
@@ -311,6 +311,39 @@
   </si>
   <si>
     <t>Пакет основного функционала</t>
+  </si>
+  <si>
+    <t>python robotstat.py</t>
+  </si>
+  <si>
+    <t>Модуль администрирования</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>Формы администрирования</t>
+  </si>
+  <si>
+    <t>Маршрутизация для администрирования</t>
+  </si>
+  <si>
+    <t>Создание шаблона</t>
+  </si>
+  <si>
+    <t>Шаблоны для администрирования</t>
+  </si>
+  <si>
+    <t>Шаблоны для авторизации</t>
+  </si>
+  <si>
+    <t>Шаблоны для вывода сообщений об ошибках</t>
+  </si>
+  <si>
+    <t>robotstat.py</t>
+  </si>
+  <si>
+    <t>Скрипт запуска приложения</t>
   </si>
 </sst>
 </file>
@@ -372,9 +405,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -382,6 +412,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -710,27 +743,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>64</v>
       </c>
     </row>
@@ -750,8 +783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{688DA16A-2D42-4695-9163-E67ABB14CDF5}">
   <dimension ref="A1:A27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -759,14 +792,14 @@
     <col min="1" max="1" width="54.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
@@ -794,6 +827,11 @@
         <v>20</v>
       </c>
     </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>83</v>
+      </c>
+    </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>22</v>
@@ -801,37 +839,37 @@
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+    <row r="16" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
@@ -855,7 +893,7 @@
       </c>
     </row>
     <row r="26" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="6" t="s">
         <v>75</v>
       </c>
     </row>
@@ -872,10 +910,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82C0A88A-B4C4-4276-8139-E8C4DB7B223A}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -899,20 +937,23 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>88</v>
+      </c>
       <c r="D4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -920,7 +961,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
@@ -928,95 +969,162 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>88</v>
+      </c>
       <c r="D8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D9" t="s">
-        <v>78</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>82</v>
-      </c>
-      <c r="C10" t="s">
-        <v>9</v>
+        <v>80</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C11" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" t="s">
-        <v>10</v>
+        <v>88</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>77</v>
-      </c>
-      <c r="C13" t="s">
-        <v>11</v>
+        <v>79</v>
+      </c>
+      <c r="D13" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>69</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1</v>
+        <v>82</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>70</v>
-      </c>
-      <c r="B15" t="s">
-        <v>3</v>
+        <v>68</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>90</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>71</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B23" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>72</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B24" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>73</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B25" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>93</v>
+      </c>
+      <c r="B26" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1064,7 +1172,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="7" t="s">
         <v>35</v>
       </c>
       <c r="B4" t="s">
@@ -1072,7 +1180,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
+      <c r="A5" s="7"/>
       <c r="B5" s="2" t="s">
         <v>41</v>
       </c>
@@ -1186,14 +1294,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">

--- a/Flask_project_guide.xlsx
+++ b/Flask_project_guide.xlsx
@@ -8,19 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python\IKP\Robotstat_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F5B4B0-9F81-49D1-93A7-550BAB769E6F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C5F48C5-746B-4850-B5A8-272DE136FE13}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{6839722E-0ED2-439C-BA68-31FD24E9F8E6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6839722E-0ED2-439C-BA68-31FD24E9F8E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Оглавление" sheetId="6" r:id="rId1"/>
     <sheet name="Запуск" sheetId="2" r:id="rId2"/>
     <sheet name="Структура приложения" sheetId="1" r:id="rId3"/>
-    <sheet name="jinja2" sheetId="3" r:id="rId4"/>
-    <sheet name="View" sheetId="4" r:id="rId5"/>
-    <sheet name="Forms" sheetId="5" r:id="rId6"/>
+    <sheet name="flask_variables" sheetId="10" r:id="rId4"/>
+    <sheet name="flask app" sheetId="9" r:id="rId5"/>
+    <sheet name="jinja2" sheetId="3" r:id="rId6"/>
+    <sheet name="View" sheetId="4" r:id="rId7"/>
+    <sheet name="модули" sheetId="8" r:id="rId8"/>
+    <sheet name="Forms" sheetId="5" r:id="rId9"/>
+    <sheet name="bootstap" sheetId="11" r:id="rId10"/>
+    <sheet name="request" sheetId="7" r:id="rId11"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">модули!$A$2:$D$2</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="208">
   <si>
     <t>app</t>
   </si>
@@ -344,6 +353,467 @@
   </si>
   <si>
     <t>Скрипт запуска приложения</t>
+  </si>
+  <si>
+    <t>request.form</t>
+  </si>
+  <si>
+    <t>Модуль</t>
+  </si>
+  <si>
+    <t>Объект</t>
+  </si>
+  <si>
+    <t>flask</t>
+  </si>
+  <si>
+    <t>Flask</t>
+  </si>
+  <si>
+    <t>request</t>
+  </si>
+  <si>
+    <t>render_template</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>Для создания объекта flask</t>
+  </si>
+  <si>
+    <t>Пример</t>
+  </si>
+  <si>
+    <t>app = Flask(__name__)</t>
+  </si>
+  <si>
+    <t>return render_template(
+        "public/jinja.html", my_name=my_name, my_age=my_age, langs=langs,
+        friends=friends, colors=colors, cool=cool, GitRemote=GitRemote,
+        my_remote=my_remote, repeat=repeat, date = date, my_html=my_html,
+        suspicious=suspicious
+    )</t>
+  </si>
+  <si>
+    <t>Для вывода HTML шаблона</t>
+  </si>
+  <si>
+    <t>Сервис для обработки времени</t>
+  </si>
+  <si>
+    <t>strftime("%d %b %Y") - форматирование даты</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Доступ к объектам запроса </t>
+  </si>
+  <si>
+    <t>redirect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Перенаправление </t>
+  </si>
+  <si>
+    <t>return redirect(request.url)</t>
+  </si>
+  <si>
+    <t>Возвращает значения полей формы в виде ImmutableMultiDict([('username', 'admin'), ('email', 'kosoukhovsa@gmail.com'), ('password', 'admin')])</t>
+  </si>
+  <si>
+    <t>Метод/атрибут</t>
+  </si>
+  <si>
+    <t>Результат</t>
+  </si>
+  <si>
+    <t>Обращение к элементам формы
+req = request.form
+        username = req.get("username")
+        email = req["email"]
+        password = request.form["password"]
+username = request.form.get("username")
+        email = request.form.get("email")
+        password = request.form.get("password")
+        # Alternatively
+        username = request.form["username"]
+        email = request.form["email"]
+        password = request.form["password"]</t>
+  </si>
+  <si>
+    <t>{'name': 'Julian', 'message': 'Posting JSON data to Flask!'}</t>
+  </si>
+  <si>
+    <t>request.is_json</t>
+  </si>
+  <si>
+    <t>Проверяет в формате JSON пришел запрос или нет</t>
+  </si>
+  <si>
+    <t>if request.is_json:
+        # Parse the JSON into a Python dictionary
+        req = request.get_json()
+        # Print the dictionary
+        print(req)
+        # Return a string along with an HTTP status code
+        return "JSON received!", 200
+    else:
+        # The request body wasn't JSON so return a 400 HTTP status code
+        return "Request was not JSON", 400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jsonify </t>
+  </si>
+  <si>
+    <t>make_response</t>
+  </si>
+  <si>
+    <t>Возвращает елементы запроса в виде словаря (serialize incoming JSON data)</t>
+  </si>
+  <si>
+    <t>request.args</t>
+  </si>
+  <si>
+    <t>args = request.args</t>
+  </si>
+  <si>
+    <t>Методы и атрибуты</t>
+  </si>
+  <si>
+    <t>app.config</t>
+  </si>
+  <si>
+    <t>Словарь с переменными конфигурации</t>
+  </si>
+  <si>
+    <t>app.config["KEY"] = "value</t>
+  </si>
+  <si>
+    <t>FLASK_ENV</t>
+  </si>
+  <si>
+    <t>Переменная</t>
+  </si>
+  <si>
+    <t>Значение по умолчанию</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>if app.config["ENV"] == "production":
+    app.config.from_object("config.ProductionConfig")
+else:
+    app.config.from_object("config.DevelopmentConfig")</t>
+  </si>
+  <si>
+    <t>Название перемнной через терминал</t>
+  </si>
+  <si>
+    <t>set FLASK_ENV = development</t>
+  </si>
+  <si>
+    <t>Устанавливает вариант запуска (разработка, тест, продуктив)</t>
+  </si>
+  <si>
+    <t>os</t>
+  </si>
+  <si>
+    <t>пакет для операций на уровне ОС</t>
+  </si>
+  <si>
+    <t>request.cookies</t>
+  </si>
+  <si>
+    <t>request.files</t>
+  </si>
+  <si>
+    <t>request.url</t>
+  </si>
+  <si>
+    <t>send_file</t>
+  </si>
+  <si>
+    <t>send_from_directory</t>
+  </si>
+  <si>
+    <t>safe_join</t>
+  </si>
+  <si>
+    <t>abort</t>
+  </si>
+  <si>
+    <t>response_body = {
+        "messge" : "JSON recived!",
+        "sender" : req.get("name")
+        }
+        res = make_response(jsonify(response_body), 200)</t>
+  </si>
+  <si>
+    <t>Преобразование словаря в JSON формат</t>
+  </si>
+  <si>
+    <t>allows us to send the contents of a file to the client</t>
+  </si>
+  <si>
+    <t>allows us to send a specific file from a directory</t>
+  </si>
+  <si>
+    <t>allows us to safely join a filename with a file/directory path</t>
+  </si>
+  <si>
+    <t>allows us to abort a request and return an HTTP status code of our choosing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parse and serialize the query string into a Python object:
+http://127.0.0.1:5000/query?foo=foo&amp;bar=bar&amp;baz=baz&amp;title=query+strings+with+flask 
+будет преобразована в :
+ImmutableMultiDict([('foo', 'foo'), ('bar', 'bar'), ('baz', 'baz'), ('title', 'query strings with flask')]) </t>
+  </si>
+  <si>
+    <t>Позволяет динамически формировать результат запроса</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @app.route("/cookies")
+def cookies():
+    resp = make_response("Cookies")
+    resp.set_cookie("flavor", "chocolate chip")
+    return resp</t>
+  </si>
+  <si>
+    <t>session</t>
+  </si>
+  <si>
+    <t>secrets</t>
+  </si>
+  <si>
+    <t>import secrets
+&gt;&gt;&gt; secrets.token_urlsafe(16)
+'OCML3BRawWEUeaxcuKHLpw'</t>
+  </si>
+  <si>
+    <t>генерация guid (например для переменной SECRET_KEY)</t>
+  </si>
+  <si>
+    <t>Добавление переменной в сессию
+session["KEY"] = "VALUE"
+Удаление переменной из сессии
+session.pop("KEY", None)</t>
+  </si>
+  <si>
+    <t>flash</t>
+  </si>
+  <si>
+    <t>Вывод сообщения на экран</t>
+  </si>
+  <si>
+    <t>request.__dict__.items()</t>
+  </si>
+  <si>
+    <t>print(request.__dict__.items())</t>
+  </si>
+  <si>
+    <t>Возвращает словарь параметров запроса</t>
+  </si>
+  <si>
+    <t>request.method</t>
+  </si>
+  <si>
+    <t>Возвращает метод запроса (PUT, GET, DELETE …)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @app.route("/")
+def public_index():
+    cookies = request.cookies
+    print(cookies)
+    return render_template("index.html")</t>
+  </si>
+  <si>
+    <t>Получить куки текущего запроса
+{'chocolate_chip': 'definitely'}</t>
+  </si>
+  <si>
+    <t>request.get_json(force=False, silent=False, cache=True)</t>
+  </si>
+  <si>
+    <t>returns an ImmutableMultiDict containing the file as a FileStorage object, a special class from the Werkzeug library that sits underneath Flask and handles requests
+Forms uploading files just have enctype="multipart/form-data" in the form tag</t>
+  </si>
+  <si>
+    <t>request.content_length</t>
+  </si>
+  <si>
+    <t>request.content_type</t>
+  </si>
+  <si>
+    <t>request.mimetype</t>
+  </si>
+  <si>
+    <t>returns the length of the request content in bytes</t>
+  </si>
+  <si>
+    <t>returns the content type of the request</t>
+  </si>
+  <si>
+    <t>returns the mimetype of the request</t>
+  </si>
+  <si>
+    <t>Content length: 213671
+Content type: multipart/form-data; boundary=----WebKitFormBoundaryB33O2yBRsBxnrIWr
+mimetype: multipart/form-data</t>
+  </si>
+  <si>
+    <t>if request.files.get("image"):
+        image = request.files["image"]
+        print(f"Filename: {image.filename}")
+        print(f"Name: {image.name}")
+        print(image)
+        # To save the image, call image.save() and provide a destination to save to
+        # image.save("/path/to/uploads/directory/filename")
+    return render_template("file.html")</t>
+  </si>
+  <si>
+    <t>request.view_args</t>
+  </si>
+  <si>
+    <t>parses and returns a dictionary of any arguments passed into the route</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @app.route("/view/args/&lt;foo&gt;/&lt;bar&gt;")
+def view_arguments(foo, bar):
+    """ Handles arguments coming in from the URL """
+    # request.view_args  returns a dict of any arguments passed to the view
+    view_args = request.view_args
+    print(view_args)
+    return render_template("index.html")</t>
+  </si>
+  <si>
+    <t>Варианты загрузки конфигурации</t>
+  </si>
+  <si>
+    <t>From a Python configuration file (*.cfg)</t>
+  </si>
+  <si>
+    <t>app.config.from_pyfile('myconfig.cfg')</t>
+  </si>
+  <si>
+    <t>From an object</t>
+  </si>
+  <si>
+    <t xml:space="preserve">app.config.from_object('myapplication.default_settings') </t>
+  </si>
+  <si>
+    <t xml:space="preserve">app.config.from_object(__name__) </t>
+  </si>
+  <si>
+    <t>From the environment variable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">app.config.from_envvar('PATH_TO_CONFIG_FILE') </t>
+  </si>
+  <si>
+    <t>Передача обработки на сторону сервера с выводом результата в шаблоне</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">На стороне View </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+@product_blueprint.context_processor
+def product_name_processor(): 
+    def full_name(product): 
+        return '{0} / {1}'.format(product['category'], 
+           product['name']) 
+    return {'full_name': full_name}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>На стороне шаблона</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+{{ full_name(product) }} </t>
+    </r>
+  </si>
+  <si>
+    <t>Конфигурация</t>
+  </si>
+  <si>
+    <t>Оглавление!A1</t>
+  </si>
+  <si>
+    <t>Методы и атрибуты объекта app</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+app.config['SQLALCHEMY_DATABASE_URI'] = os.environ('DATABASE_URI') </t>
+  </si>
+  <si>
+    <t>Views</t>
+  </si>
+  <si>
+    <t>Назначение отдельных модулей и расширений</t>
+  </si>
+  <si>
+    <t>requests</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Создание http запросов (requests) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt;&gt;&gt; import requests
+&gt;&gt;&gt; requests.post('http://127.0.0.1:5000/product-create',     data={'name': 'iPhone 5S', 'price': '549.0'})
+  </t>
+  </si>
+  <si>
+    <t>app.static_folder</t>
+  </si>
+  <si>
+    <t>app.url_map</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> get all the defined URL routes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> папка для хранения статичных файлов</t>
+  </si>
+  <si>
+    <t>Методы и атрибуты объекта request</t>
   </si>
 </sst>
 </file>
@@ -399,7 +869,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -413,8 +883,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -731,15 +1211,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B20CB91-F000-42D3-8D66-CD86E9F49AE0}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
@@ -765,6 +1243,31 @@
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -774,6 +1277,190 @@
     <hyperlink ref="A3" location="jinja2!A1" display="Операторы в шаблонах" xr:uid="{0D30A7DC-22C7-4208-A5D9-5FF22AD28C8B}"/>
     <hyperlink ref="A4" location="View!A1" display="Маршрутизация запросов (View)" xr:uid="{BB19110B-7A21-46B7-B536-62EB4B1E6D62}"/>
     <hyperlink ref="A5" location="Forms!A1" display="Формы" xr:uid="{6C994953-3639-4980-BCCF-6FD5326EB6EA}"/>
+    <hyperlink ref="A6" location="flask_variables!A1" display="Конфигурация" xr:uid="{F95EE352-C3D1-414E-A225-DEB713400249}"/>
+    <hyperlink ref="A7" location="'flask app'!A1" display="Методы и атрибуты объекта app" xr:uid="{A94BEA19-169B-48FD-B63C-A9DD23A86A1F}"/>
+    <hyperlink ref="A8" location="View!A1" display="Views" xr:uid="{33748B36-84B6-47EA-A6D8-D1A5D8616007}"/>
+    <hyperlink ref="A9" location="модули!A1" display="Модули" xr:uid="{D41038B2-1CD4-4B5B-8968-EB182300C973}"/>
+    <hyperlink ref="A10" location="request!A1" display="Методы и атрибуты объекта request" xr:uid="{53F147C7-53FA-48D8-BAAF-EC80A6D38341}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CA9B706-1DAF-495D-92C2-F1609010572A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19FD3C77-6D7C-440E-9DC2-BD85BEF56C09}">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="33.109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="88.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="123.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="144" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="144" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C11" s="9"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C12" s="9"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="144" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C10:C12"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Оглавление!A1" display="Оглавление!A1" xr:uid="{EBE43E4D-DA6C-4A44-99B0-BF50F96A21A6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -783,7 +1470,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{688DA16A-2D42-4695-9163-E67ABB14CDF5}">
   <dimension ref="A1:A27"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
@@ -912,7 +1599,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82C0A88A-B4C4-4276-8139-E8C4DB7B223A}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
@@ -920,6 +1607,8 @@
   <cols>
     <col min="1" max="1" width="52.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.77734375" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -1133,10 +1822,184 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89610FD5-1DC2-4657-90A8-BCDF16E03C84}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{753FE662-3ED2-493D-A90D-C3E0D3F67700}">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="33.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="58.88671875" customWidth="1"/>
+    <col min="5" max="5" width="35" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B9" t="s">
+        <v>137</v>
+      </c>
+      <c r="C9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Оглавление!A1" display="Оглавление!A1" xr:uid="{2C2D0BB9-AF6F-48F3-8964-CBF315B83F45}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3D33026-74C1-43A6-95D1-C14C89877702}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="77" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="9"/>
+      <c r="B4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C4" s="10"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>203</v>
+      </c>
+      <c r="B5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>204</v>
+      </c>
+      <c r="B6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="C3:C4"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Оглавление!A1" display="Оглавление!A1" xr:uid="{95534E5B-9740-4E11-8CD8-56497EAE0D54}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89610FD5-1DC2-4657-90A8-BCDF16E03C84}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -1172,7 +2035,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="9" t="s">
         <v>35</v>
       </c>
       <c r="B4" t="s">
@@ -1180,7 +2043,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="7"/>
+      <c r="A5" s="9"/>
       <c r="B5" s="2" t="s">
         <v>41</v>
       </c>
@@ -1196,96 +2059,351 @@
         <v>40</v>
       </c>
     </row>
+    <row r="7" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="10"/>
+      <c r="B8" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60A1E301-4ED7-4981-9782-6DDA3600F11C}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="43.33203125" customWidth="1"/>
+    <col min="2" max="2" width="62.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Оглавление!A1" display="Оглавление!A1" xr:uid="{EA078255-3C0B-425E-A1F9-A048C41D339F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAA21F88-B330-4FE8-AD23-AE7BA2FB4A36}">
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="62.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="63.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="71.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+      <c r="B3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+      <c r="B4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+      <c r="B5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+      <c r="B6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>53</v>
+        <v>97</v>
+      </c>
+      <c r="B7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C10" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C12" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" t="s">
+        <v>156</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B14" t="s">
+        <v>161</v>
+      </c>
+      <c r="C14" t="s">
+        <v>162</v>
+      </c>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C15" t="s">
+        <v>107</v>
+      </c>
+      <c r="D15" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>138</v>
+      </c>
+      <c r="B16" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>157</v>
+      </c>
+      <c r="C17" t="s">
+        <v>159</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>200</v>
+      </c>
+      <c r="C18" t="s">
+        <v>201</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A2:D2" xr:uid="{B3BBBF8C-55C9-4706-9F73-E1E2327D2CF5}"/>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Оглавление!A1" display="Оглавление!A1" xr:uid="{E25D6385-D644-49B0-8D68-44FD85820386}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{905B5B74-F809-4602-B1DA-0D27AB78BE96}">
-  <dimension ref="A2:D4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1293,6 +2411,11 @@
     <col min="2" max="2" width="51.88671875" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
     <row r="2" spans="1:4" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>59</v>
@@ -1320,6 +2443,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Оглавление!A1" display="Оглавление!A1" xr:uid="{7D4A6D23-245B-4E9C-B648-75E4B10D4550}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Flask_project_guide.xlsx
+++ b/Flask_project_guide.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python\IKP\Robotstat_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C5F48C5-746B-4850-B5A8-272DE136FE13}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{455AE0A6-57BD-4039-A72E-B675208314B8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6839722E-0ED2-439C-BA68-31FD24E9F8E6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="11" xr2:uid="{6839722E-0ED2-439C-BA68-31FD24E9F8E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Оглавление" sheetId="6" r:id="rId1"/>
@@ -24,12 +24,12 @@
     <sheet name="Forms" sheetId="5" r:id="rId9"/>
     <sheet name="bootstap" sheetId="11" r:id="rId10"/>
     <sheet name="request" sheetId="7" r:id="rId11"/>
+    <sheet name="SQLAlchemy" sheetId="12" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">модули!$A$2:$D$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -887,14 +887,14 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1213,7 +1213,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B20CB91-F000-42D3-8D66-CD86E9F49AE0}">
   <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1303,7 +1305,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19FD3C77-6D7C-440E-9DC2-BD85BEF56C09}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1313,7 +1317,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="9" t="s">
         <v>195</v>
       </c>
     </row>
@@ -1409,7 +1413,7 @@
       <c r="B10" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="11" t="s">
         <v>178</v>
       </c>
     </row>
@@ -1420,7 +1424,7 @@
       <c r="B11" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C11" s="9"/>
+      <c r="C11" s="10"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
@@ -1429,7 +1433,7 @@
       <c r="B12" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C12" s="9"/>
+      <c r="C12" s="10"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
@@ -1466,13 +1470,25 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD3B3F6F-9EDD-4541-B74B-1B0786651B14}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{688DA16A-2D42-4695-9163-E67ABB14CDF5}">
   <dimension ref="A1:A27"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
-    </sheetView>
+    <sheetView topLeftCell="A7" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1600,7 +1616,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1825,7 +1841,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{753FE662-3ED2-493D-A90D-C3E0D3F67700}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1923,7 +1941,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A3" sqref="A3:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1950,22 +1968,22 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>127</v>
       </c>
       <c r="B3" t="s">
         <v>128</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="11" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="9"/>
+      <c r="A4" s="10"/>
       <c r="B4" t="s">
         <v>129</v>
       </c>
-      <c r="C4" s="10"/>
+      <c r="C4" s="11"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -1999,7 +2017,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89610FD5-1DC2-4657-90A8-BCDF16E03C84}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -2035,7 +2053,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="10" t="s">
         <v>35</v>
       </c>
       <c r="B4" t="s">
@@ -2043,7 +2061,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="9"/>
+      <c r="A5" s="10"/>
       <c r="B5" s="2" t="s">
         <v>41</v>
       </c>
@@ -2060,7 +2078,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="11" t="s">
         <v>191</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -2068,7 +2086,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="10"/>
+      <c r="A8" s="11"/>
       <c r="B8" s="2" t="s">
         <v>193</v>
       </c>
@@ -2403,7 +2421,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{905B5B74-F809-4602-B1DA-0D27AB78BE96}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
